--- a/biology/Zoologie/Episcada/Episcada.xlsx
+++ b/biology/Zoologie/Episcada/Episcada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Episcada est un genre de papillons de la famille des Nymphalidae, de la sous-famille des Danainae et de la tribu Ithomiini.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique et  dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Episcada a été nommé par Frederick DuCane Godman et Osbert Salvin en 1879[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Episcada a été nommé par Frederick DuCane Godman et Osbert Salvin en 1879.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Episcada apuleia (Hewitson, 1868)
 Episcada carcinia Schaus, 1902
 Episcada clausina (Hewitson, 1876)
-Episcada doto (Hübner, [1806])
+Episcada doto (Hübner, )
 Episcada hemixanthe (C. &amp; R. Felder, 1865)
 Episcada hymen Haensch, 1905
 Episcada hymenaea (Prittwitz, 1865)
@@ -558,7 +574,7 @@
 Episcada sulphurea Haensch, 1905
 Episcada sylpha Haensch, 1905
 Episcada ticidella (Hewitson, 1869)
-Episcada vitrea d'Almeida &amp; Mielke, 1967[1].
+Episcada vitrea d'Almeida &amp; Mielke, 1967.
 Sur les autres projets Wikimedia :
 Episcada, sur Wikimedia CommonsEpiscada, sur Wikispecies
 </t>
